--- a/biology/Mycologie/Mycétome/Mycétome.xlsx
+++ b/biology/Mycologie/Mycétome/Mycétome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mycétome, aussi appelé pied de Madura, est une « pseudo-tumeur » inflammatoire localisée dans un tissu sous-cutané. Elle résulte d'une infection associant :
 un champignon, Madurella mycetomatis (en) (présent sous forme de grains fongiques, de couleur foncée, noirs, bruns ou rouges)
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Agent causal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycétomes sont dus à des microorganismes saprophytes (décomposeurs normalement et couramment répandus sur et dans les sols), mais qu'on trouve aussi sur les épineux des climats semi-désertiques. 
 Le pathogène pénètre l'organisme via des piqûres d'épines contaminées ou une plaie préexistante.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Éco-épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une infection presque endémique de la zone tropicale nord a été décrite par Mc Gill au XIXe siècle, aux environs de Madura, avec le symptôme du pied de Madura (mycétome fongique attaquant le pied et évoluant vers une tuméfaction indolore, avec des grains émis par des fistules de la peau). 
 Des mycétomes actinomycosiques, communs en Amérique du sud causent des tuméfactions sous-cutanées (inflammatoires et douloureuses) avec de nombreuses fistules et grains. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une atteinte osseuse sous-jacente est fréquente, diagnostiquée par l'examen microscopique des grains et leur mise en culture. 
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le mycétome ne doit pas être confondu avec :
 un neurofibrome cutané,
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Des médicaments traitent les mycétomes actinomycosiques. 
 L'acte chirurgical reste le moyen le plus courant de remédier aux mycétomes fongiques. 
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Myc%C3%A9tome</t>
+          <t>Mycétome</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,9 +696,11 @@
           <t>Prophylaxie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La désinfection préventive des plaies et le port de chaussures (et de gants pour ceux qui travaillent dans les épineux) sont les moyens recommandés[1]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La désinfection préventive des plaies et le port de chaussures (et de gants pour ceux qui travaillent dans les épineux) sont les moyens recommandés. 
 </t>
         </is>
       </c>
